--- a/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
@@ -3,11 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="8040" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8040" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Show" sheetId="1" r:id="rId1"/>
+    <sheet name="Show" sheetId="9" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="2" r:id="rId2"/>
     <sheet name="ShowInNewPage" sheetId="3" r:id="rId3"/>
     <sheet name="ShowInNewPageDateRange" sheetId="4" r:id="rId4"/>
@@ -16,7 +21,6 @@
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
   <si>
     <t>Report Channel</t>
   </si>
@@ -43,9 +47,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -58,9 +59,6 @@
     <t>Chat</t>
   </si>
   <si>
-    <t>OCM Chat Agent Performance Report</t>
-  </si>
-  <si>
     <t>OCM Chatbot Interaction Report</t>
   </si>
   <si>
@@ -79,9 +77,6 @@
     <t>Is equal to</t>
   </si>
   <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
     <t>Is  not equal to</t>
   </si>
   <si>
@@ -91,19 +86,97 @@
     <t>Contains</t>
   </si>
   <si>
-    <t>garg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
-    <t>chatbot</t>
-  </si>
-  <si>
     <t>Advanced Search</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>18-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-05-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>15-05-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>15-05-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>S1234567A</t>
+  </si>
+  <si>
+    <t>hma</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>15-05-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>15-05-2020 00:00:05</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>mariyam kasheera</t>
+  </si>
+  <si>
+    <t>yam</t>
+  </si>
+  <si>
+    <t>Kash</t>
+  </si>
+  <si>
+    <t>Villers</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>50014</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Abrahma</t>
   </si>
 </sst>
 </file>
@@ -139,9 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,21 +496,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,19 +524,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -471,25 +552,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,123 +581,134 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -629,18 +721,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,18 +746,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -678,19 +770,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,27 +793,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -734,18 +826,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,18 +851,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -783,19 +875,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,27 +898,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -836,18 +928,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,51 +960,208 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8040" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
   <si>
     <t>Report Channel</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>01-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>15-05-2020 00:00:00</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>ma</t>
   </si>
   <si>
-    <t>ra</t>
-  </si>
-  <si>
     <t>Search String1</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Abrahma</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>12-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -639,10 +639,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -665,10 +665,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -691,10 +691,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -703,12 +703,33 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>32</v>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +791,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +896,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -930,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,10 +999,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -995,28 +1016,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1030,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1042,10 +1063,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1059,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1074,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1088,10 +1109,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1100,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1129,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1146,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1158,10 +1179,10 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
+    <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>Report Channel</t>
   </si>
@@ -177,6 +173,115 @@
   </si>
   <si>
     <t>12-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>21-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [SessionID] as [Session ID],[Identification],[Channel],[Skill],
+M.[AgentID] as [Agent ID], A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
+A.[SupervisorName] as [Supervisor Name],
+Case when M.[ChatBotStartDateTime] is null then '' Else
+FORMAT([dbo].[VARCHARTODATETIME](M.ChatBotStartDateTime),'dd/MM/yyyy HH:mm:ss') end as [ChatBot Start Date Time],
+Case When M.[ChatBotEndDateTime] is null then '' else
+FORMAT([dbo].[VARCHARTODATETIME](M.[ChatBotEndDateTime]),'dd/MM/yyyy HH:mm:ss') end as [ChatBot End Date Time], 
+case when M.[StartDateTime] is null then '' else
+FORMAT([dbo].[VARCHARTODATETIME](M.StartDateTime),'dd/MM/yyyy HH:mm:ss') end as [Live Chat Start Date Time],
+case when M.EndDateTime is null then '' else
+FORMAT([dbo].[VARCHARTODATETIME](M.EndDateTime),'dd/MM/yyyy HH:mm:ss') end as [Live Chat End Date Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),DURATIONTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),DURATIONTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),  DURATIONTIME % 60), 2)) as [Duration],
+M.[CALLBACK] as [CallBack],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.QUEUEWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.QUEUEWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.QUEUEWAITTIME % 60), 2)) as [Queue Wait Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.AGENTWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.AGENTWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.AGENTWAITTIME % 60), 2)) as [Agent Wait Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.USERWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.USERWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.USERWAITTIME % 60), 2)) as[User Wait Time],
+isnull(M.[CHATENDREASON],'') as [Chat End Reason],' ' as[ ]
+--[IntentName],[SegmentCode],[SubSegmentCode],[IsChatConferenced],[IsChatTransfered],[CustEntType],[ChatBotSessionID],
+ From (SELECT DISTINCT H.GroupID SESSIONID,H.ID,INTDURTIME.NRIC AS IDENTIFICATION,
+   CHATBOTSTARTDATETIME,CHATBOTENDDATETIME,INTDATETIME.STARTDATETIME,INTDATETIME.ENDDATETIME,I.Intent INTENTNAME,
+   (CASE WHEN ISNULL(S.SkillName,'')='' THEN ISNULL(I.Skill,'') ELSE ISNULL(S.SkillName,'') END) as SKILL,
+   (CASE WHEN (Isnull(TabCallback.CallbackCount,0))=0 THEN 'No' ELSE 'Yes' END) AS CALLBACK, 
+   isnull(DATEDIFF(SECOND,dbo.VARCHARTODATETIME(CASE WHEN CHATBOTSTARTDATETIME IS NULL THEN INTDATETIME.StartDateTime ELSE CHATBOTSTARTDATETIME END),
+   dbo.VARCHARTODATETIME(CASE WHEN CHATBOTENDDATETIME IS NULL THEN INTDATETIME.ENDDATETIME ELSE CHATBOTENDDATETIME END )),0) AS DURATIONTIME,
+   ISCHATTRANSFERED,ISCHATCONFERENCED,  I.AgentID AS AGENTID,OTHERDATA as OTHERDATA,Isnull(CHAT.QueueTime,0) AS QUEUEWAITTIME,
+   AGENTWAITTIME,USERWAITTIME, I.SUBCHANNEL AS CHANNEL, INTDURTIME.CHATENDREASON
+   FROM GBL_INTERACTIONHISTORY H with(nolock) 
+   --JOIN TMAC_INTERACTION TABLE
+   LEFT JOIN TMAC_Interactions I with(nolock)ON I.SessionId= H.SESSIONID
+   --to get skill name
+   LEFT JOIN TMAC_Skills S with(nolock) on S.SkillExtension=I.Skill
+   --TO GET TRANSFERED AND CONFERENCED COUNT
+   LEFT JOIN
+   (
+    SELECT   SessionId, isnull(sum(ISTRANSFERED),0) AS ISCHATTRANSFERED,isnull(sum(ISCONFERENCED),0) AS ISCHATCONFERENCED, 
+    isnull(sum(AgentWaitTimeForResponse),0) as AGENTWAITTIME , isnull(sum(UserWaitTimeForResponse),0) as USERWAITTIME, isnull(sum(QueueTime),0) QueueTime from TMAC_Interactions with(nolock) 
+    WHERE (Channel='Chat' or Channel='TextChat' OR Channel='AudioChat' OR Channel='VideoChat')  GROUP BY SessionId
+   ) 
+   CHAT ON CHAT.SessionId=H.SessionId 
+   -- TO GET INTERACTION STARTDATETIM AND 
+   LEFT JOIN
+   (
+    SELECT  SESSIONID,MIN(INTERACTIONDATE+INTERACTIONTIME) AS StartDateTime,
+    MAX(INTERACTIONDATE+INTERACTIONTIME) AS EndDateTime FROM GBL_INTERACTIONHISTORY with(nolock)
+    WHERE (Channel='Chat' or Channel='TextChat' OR Channel='AudioChat' OR Channel='VideoChat') AND 
+    InsertedBy NOT IN (select A.AvayaLoginID from AGT_Agent A join AGT_TMACAgentProfile P on A.AvayaLoginID=P.AgentID WHERE P.AccessRole='Chatbot')
+    GROUP BY SESSIONID
+   ) 
+   INTDATETIME ON INTDATETIME.SESSIONID = H.SESSIONID  
+   LEFT JOIN
+   (
+    SELECT  SessionId,MIN(INTERACTIONDATE+INTERACTIONTIME) AS ChatBotStartDateTime,
+    MAX(INTERACTIONDATE+INTERACTIONTIME) AS ChatBotEndDateTime FROM GBL_INTERACTIONHISTORY with(nolock) 
+    WHERE (Channel='Chat' or Channel='TextChat' OR Channel='AudioChat' OR Channel='VideoChat') AND 
+    InsertedBy IN (select A.AvayaLoginID from AGT_Agent A join AGT_TMACAgentProfile P on A.AvayaLoginID=P.AgentID WHERE P.AccessRole='Chatbot')
+    GROUP BY SessionId
+   ) 
+   BOTDATETIME ON BOTDATETIME.SessionId = H.SessionId  
+   LEFT JOIN
+   (
+    SELECT  SessionId,NRIC,INTERACTIONDATE+INTERACTIONTIME AS DurEndDateTime,substring (InteractionText ,charindex(':',InteractionText)+1,500) AS CHATENDREASON 
+    FROM GBL_INTERACTIONHISTORY with(nolock) WHERE ID IN ( SELECT  MAX(id) as ID from GBL_INTERACTIONHISTORY with(nolock)  
+    WHERE (Channel='Chat' or Channel='TextChat' OR Channel='AudioChat' OR Channel='VideoChat')  
+    AND (INTERACTIONTEXT like '_RemoteEndDisconnected%'  OR INTERACTIONTEXT like '_RemoteEndClosed%' OR INTERACTIONTEXT like '_Agent-EndTextChat%')
+    GROUP BY SessionId) GROUP BY SessionId,INTERACTIONDATE,INTERACTIONTIME,InteractionText,NRIC
+   ) 
+   INTDURTIME ON INTDURTIME.SessionId = H.SessionId  
+   -- TO CHECK IS CAALL BACK
+   LEFT JOIN 
+   ( 
+     Select SessionID, COUNT(1) as CallbackCount FROM IVR_CALLBACK_REQUESTS R with(nolock)
+     JOIN TMAC_Interactions C with(nolock) on C.SubSessionId  = R.UCID 
+     GROUP By SessionID
+   ) 
+   TabCallback on TabCallback.SessionID = H.GroupID 
+   INNER JOIN
+   (
+    SELECT  min(id) as ID,SessionID from GBL_INTERACTIONHISTORY with(nolock)  WHERE (Channel='Chat' or Channel='TextChat' OR Channel='AudioChat' OR Channel='VideoChat')
+    GROUP BY SessionID
+   )
+   HID ON HID.SessionID = H.SessionID AND HID.ID=H.ID
+   WHERE IsTransfered=0 AND IsConferenced=0  AND (H.Channel='Chat' or H.Channel='TextChat' OR H.Channel='AudioChat' OR H.Channel='VideoChat')  
+   AND I.ClosedDateTime &gt;= 'ReportBeforeDate' AND I.ClosedDateTime &lt;= 'ReportAfterDate'
+   AND I.CreatedDateTime in ( SELECT  min(CreatedDateTime) as id from TMAC_Interactions with(nolock)  
+   WHERE  (Channel='Chat' OR Channel='TextChat' OR Channel='AudioChat' OR Channel='VideoChat') 
+   AND CALLCONNECTEDTIME != '00010101000000' AND ClosedDateTime &gt;= 'ReportBeforeDate' AND ClosedDateTime &lt;= 'ReportAfterDate'  GROUP BY SessionId) 
+   GROUP BY H.GroupID ,I.Intent,TabCallback.CallbackCount,CustomData,CHAT.AGENTWAITTIME,CHAT.USERWAITTIME,
+   CHAT.QUEUETIME,StartDateTime,EndDateTime,ChatBotStartDateTime,ChatBotEndDateTime,
+   INTDURTIME.NRIC,ISCHATTRANSFERED,ISCHATCONFERENCED,H.ID,
+   I.AgentID,INTDURTIME.DurEndDateTime,I.Subchannel,INTDURTIME.CHATENDREASON,I.OtherData,S.SkillName,I.Skill) 
+   M  INNER JOIN fn_AgentHierarchy('na','','') A ON A.[AgentId]=M.[AgentID] 
+   order by [Session ID];
+</t>
   </si>
 </sst>
 </file>
@@ -212,10 +317,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,14 +612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -555,19 +669,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -745,12 +859,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -794,13 +908,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -850,12 +964,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,15 +1010,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -955,19 +1069,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,4 +1302,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15195" windowHeight="6495" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -322,12 +323,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -613,7 +614,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +626,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,7 +670,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +685,7 @@
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,7 +743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -768,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -794,7 +795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,7 +821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,7 +868,7 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,7 +918,7 @@
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,7 +973,7 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1023,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1085,7 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1306,19 +1307,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,10 +1331,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
@@ -1342,42 +1342,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369A21B-3D32-4810-B916-599D4079043F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15195" windowHeight="6495" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -17,7 +23,6 @@
     <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <si>
     <t>Report Channel</t>
   </si>
@@ -119,9 +124,6 @@
     <t>hma</t>
   </si>
   <si>
-    <t>ma</t>
-  </si>
-  <si>
     <t>Search String1</t>
   </si>
   <si>
@@ -149,9 +151,6 @@
     <t>mariyam kasheera</t>
   </si>
   <si>
-    <t>yam</t>
-  </si>
-  <si>
     <t>Kash</t>
   </si>
   <si>
@@ -168,9 +167,6 @@
   </si>
   <si>
     <t>Abrahma</t>
-  </si>
-  <si>
-    <t>MS</t>
   </si>
   <si>
     <t>12-05-2020 00:00:00</t>
@@ -284,11 +280,23 @@
    order by [Session ID];
 </t>
   </si>
+  <si>
+    <t>Abrahma Villers</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,30 +611,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -666,26 +674,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -725,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -740,10 +748,10 @@
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -754,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -769,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -795,7 +803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -806,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -818,10 +826,10 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -841,34 +849,58 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,23 +934,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -958,22 +990,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,23 +1039,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1063,29 +1095,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,13 +1146,13 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1140,33 +1172,33 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1178,13 +1210,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1210,10 +1242,10 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -1236,13 +1268,13 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1253,10 +1285,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1265,13 +1297,13 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1282,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1294,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1306,22 +1338,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1338,10 +1370,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1355,10 +1387,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatbotInteractionReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369A21B-3D32-4810-B916-599D4079043F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CEB12E-1F5B-4446-8651-9C5626E9C5D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
   <si>
     <t>Report Channel</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Is  not equal to</t>
   </si>
   <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
     <t>Contains</t>
   </si>
   <si>
@@ -97,45 +94,18 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>18-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>DeleteReason</t>
   </si>
   <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>15-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>15-05-2020 00:00:01</t>
-  </si>
-  <si>
-    <t>15-05-2020 00:00:02</t>
-  </si>
-  <si>
-    <t>15-05-2020 00:00:03</t>
-  </si>
-  <si>
-    <t>S1234567A</t>
-  </si>
-  <si>
-    <t>hma</t>
-  </si>
-  <si>
     <t>Search String1</t>
   </si>
   <si>
     <t>Search String2</t>
   </si>
   <si>
-    <t>15-05-2020 00:00:04</t>
-  </si>
-  <si>
-    <t>15-05-2020 00:00:05</t>
-  </si>
-  <si>
     <t>Is not equal to</t>
   </si>
   <si>
@@ -148,38 +118,44 @@
     <t>Ends with</t>
   </si>
   <si>
-    <t>mariyam kasheera</t>
-  </si>
-  <si>
-    <t>Kash</t>
-  </si>
-  <si>
-    <t>Villers</t>
-  </si>
-  <si>
     <t>Agent ID</t>
   </si>
   <si>
-    <t>50014</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>Abrahma</t>
-  </si>
-  <si>
-    <t>12-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
-    <t>21-05-2020 00:00:00</t>
+    <t>05-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>15-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Amy M</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>agentp12</t>
+  </si>
+  <si>
+    <t>chatbot12 agentp12</t>
+  </si>
+  <si>
+    <t>50082</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT [SessionID] as [Session ID],[Identification],[Channel],[Skill],
-M.[AgentID] as [Agent ID], A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
+M.[AgentID] as [Agent ID], A.[AgentName] as [Agent Name],A.[TeamName] as [Org.Unit],
 A.[SupervisorName] as [Supervisor Name],
 Case when M.[ChatBotStartDateTime] is null then '' Else
 FORMAT([dbo].[VARCHARTODATETIME](M.ChatBotStartDateTime),'dd/MM/yyyy HH:mm:ss') end as [ChatBot Start Date Time],
@@ -280,27 +256,21 @@
    order by [Session ID];
 </t>
   </si>
-  <si>
-    <t>Abrahma Villers</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>Ab</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -662,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -677,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -733,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -745,10 +715,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -762,10 +732,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -774,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -788,19 +758,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,19 +784,19 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -840,19 +810,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -866,19 +836,20 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -889,7 +860,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +909,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,10 +949,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +965,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1083,10 +1054,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1070,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -1146,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1163,28 +1134,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1198,22 +1169,22 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1227,22 +1198,22 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1256,22 +1227,22 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1285,22 +1256,22 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1314,22 +1285,22 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1341,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -1384,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
